--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Vegfa-Flt1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Vegfa-Flt1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.24959</v>
+        <v>6.3049255</v>
       </c>
       <c r="H2">
-        <v>4.49918</v>
+        <v>12.609851</v>
       </c>
       <c r="I2">
-        <v>0.0392017419201376</v>
+        <v>0.03649377841784593</v>
       </c>
       <c r="J2">
-        <v>0.02815879978891071</v>
+        <v>0.02546366648574191</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>117.8215865</v>
+        <v>174.672142</v>
       </c>
       <c r="N2">
-        <v>235.643173</v>
+        <v>349.344284</v>
       </c>
       <c r="O2">
-        <v>0.532002292588051</v>
+        <v>0.9500008575120613</v>
       </c>
       <c r="P2">
-        <v>0.4324630118342522</v>
+        <v>0.9347963586598871</v>
       </c>
       <c r="Q2">
-        <v>265.050262774535</v>
+        <v>1101.294842235421</v>
       </c>
       <c r="R2">
-        <v>1060.20105109814</v>
+        <v>4405.179368941684</v>
       </c>
       <c r="S2">
-        <v>0.0208554165749583</v>
+        <v>0.03466912079080879</v>
       </c>
       <c r="T2">
-        <v>0.01217763936635003</v>
+        <v>0.02380334270900134</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.24959</v>
+        <v>6.3049255</v>
       </c>
       <c r="H3">
-        <v>4.49918</v>
+        <v>12.609851</v>
       </c>
       <c r="I3">
-        <v>0.0392017419201376</v>
+        <v>0.03649377841784593</v>
       </c>
       <c r="J3">
-        <v>0.02815879978891071</v>
+        <v>0.02546366648574191</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>0.235393</v>
       </c>
       <c r="N3">
-        <v>0.7061789999999999</v>
+        <v>0.706179</v>
       </c>
       <c r="O3">
-        <v>0.00106287497375686</v>
+        <v>0.00128024737827018</v>
       </c>
       <c r="P3">
-        <v>0.001296011649079689</v>
+        <v>0.001889636063895296</v>
       </c>
       <c r="Q3">
-        <v>0.5295377388699999</v>
+        <v>1.4841353282215</v>
       </c>
       <c r="R3">
-        <v>3.17722643322</v>
+        <v>8.904811969329</v>
       </c>
       <c r="S3">
-        <v>4.166655041458943E-05</v>
+        <v>4.672106414262013E-05</v>
       </c>
       <c r="T3">
-        <v>3.649413255053096E-05</v>
+        <v>4.81170625104599E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.24959</v>
+        <v>6.3049255</v>
       </c>
       <c r="H4">
-        <v>4.49918</v>
+        <v>12.609851</v>
       </c>
       <c r="I4">
-        <v>0.0392017419201376</v>
+        <v>0.03649377841784593</v>
       </c>
       <c r="J4">
-        <v>0.02815879978891071</v>
+        <v>0.02546366648574191</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5852593333333332</v>
+        <v>1.892831</v>
       </c>
       <c r="N4">
-        <v>1.755778</v>
+        <v>5.678493</v>
       </c>
       <c r="O4">
-        <v>0.002642633802014605</v>
+        <v>0.01029466434965578</v>
       </c>
       <c r="P4">
-        <v>0.003222283218840886</v>
+        <v>0.01519485167553409</v>
       </c>
       <c r="Q4">
-        <v>1.316593543673333</v>
+        <v>11.9341584390905</v>
       </c>
       <c r="R4">
-        <v>7.899561262039999</v>
+        <v>71.60495063454299</v>
       </c>
       <c r="S4">
-        <v>0.0001035958482960085</v>
+        <v>0.0003756911996624361</v>
       </c>
       <c r="T4">
-        <v>9.073562802250725E-05</v>
+        <v>0.0003869166353661168</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.24959</v>
+        <v>6.3049255</v>
       </c>
       <c r="H5">
-        <v>4.49918</v>
+        <v>12.609851</v>
       </c>
       <c r="I5">
-        <v>0.0392017419201376</v>
+        <v>0.03649377841784593</v>
       </c>
       <c r="J5">
-        <v>0.02815879978891071</v>
+        <v>0.02546366648574191</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.696687</v>
+        <v>3.211954</v>
       </c>
       <c r="N5">
-        <v>3.393374</v>
+        <v>6.423908</v>
       </c>
       <c r="O5">
-        <v>0.007661086568413696</v>
+        <v>0.01746906529771241</v>
       </c>
       <c r="P5">
-        <v>0.00622767348460396</v>
+        <v>0.01718947777821983</v>
       </c>
       <c r="Q5">
-        <v>3.81685010833</v>
+        <v>20.251130679427</v>
       </c>
       <c r="R5">
-        <v>15.26740043332</v>
+        <v>81.004522717708</v>
       </c>
       <c r="S5">
-        <v>0.0003003279384827862</v>
+        <v>0.0006375121981415985</v>
       </c>
       <c r="T5">
-        <v>0.0001753638108036708</v>
+        <v>0.0004377071292086616</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.24959</v>
+        <v>6.3049255</v>
       </c>
       <c r="H6">
-        <v>4.49918</v>
+        <v>12.609851</v>
       </c>
       <c r="I6">
-        <v>0.0392017419201376</v>
+        <v>0.03649377841784593</v>
       </c>
       <c r="J6">
-        <v>0.02815879978891071</v>
+        <v>0.02546366648574191</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>98.61275733333333</v>
+        <v>3.150505</v>
       </c>
       <c r="N6">
-        <v>295.838272</v>
+        <v>9.451515000000001</v>
       </c>
       <c r="O6">
-        <v>0.4452682614298566</v>
+        <v>0.01713485858320806</v>
       </c>
       <c r="P6">
-        <v>0.5429357808085564</v>
+        <v>0.02529092992350006</v>
       </c>
       <c r="Q6">
-        <v>221.8382727694933</v>
+        <v>19.8636993123775</v>
       </c>
       <c r="R6">
-        <v>1331.02963661696</v>
+        <v>119.182195874265</v>
       </c>
       <c r="S6">
-        <v>0.0174552914698016</v>
+        <v>0.0006253157323567203</v>
       </c>
       <c r="T6">
-        <v>0.01528841995002405</v>
+        <v>0.0006439998046862756</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.24959</v>
+        <v>6.3049255</v>
       </c>
       <c r="H7">
-        <v>4.49918</v>
+        <v>12.609851</v>
       </c>
       <c r="I7">
-        <v>0.0392017419201376</v>
+        <v>0.03649377841784593</v>
       </c>
       <c r="J7">
-        <v>0.02815879978891071</v>
+        <v>0.02546366648574191</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.51651</v>
+        <v>0.7024216666666666</v>
       </c>
       <c r="N7">
-        <v>7.549530000000001</v>
+        <v>2.107265</v>
       </c>
       <c r="O7">
-        <v>0.01136285063790714</v>
+        <v>0.003820306879092285</v>
       </c>
       <c r="P7">
-        <v>0.01385523900466678</v>
+        <v>0.005638745898963748</v>
       </c>
       <c r="Q7">
-        <v>5.661115730900001</v>
+        <v>4.428716277919166</v>
       </c>
       <c r="R7">
-        <v>33.9666943854</v>
+        <v>26.572297667515</v>
       </c>
       <c r="S7">
-        <v>0.0004454435381843066</v>
+        <v>0.0001394174327337664</v>
       </c>
       <c r="T7">
-        <v>0.0003901469011599185</v>
+        <v>0.0001435831449690578</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>54.548013</v>
       </c>
       <c r="I8">
-        <v>0.3168543494417961</v>
+        <v>0.1052438076419132</v>
       </c>
       <c r="J8">
-        <v>0.3413970049986661</v>
+        <v>0.110151373754687</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>117.8215865</v>
+        <v>174.672142</v>
       </c>
       <c r="N8">
-        <v>235.643173</v>
+        <v>349.344284</v>
       </c>
       <c r="O8">
-        <v>0.532002292588051</v>
+        <v>0.9500008575120613</v>
       </c>
       <c r="P8">
-        <v>0.4324630118342522</v>
+        <v>0.9347963586598871</v>
       </c>
       <c r="Q8">
-        <v>2142.311144027541</v>
+        <v>3176.006090851282</v>
       </c>
       <c r="R8">
-        <v>12853.86686416525</v>
+        <v>19056.03654510769</v>
       </c>
       <c r="S8">
-        <v>0.168567240319531</v>
+        <v>0.09998170750765192</v>
       </c>
       <c r="T8">
-        <v>0.1476415770129164</v>
+        <v>0.1029691030872657</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>54.548013</v>
       </c>
       <c r="I9">
-        <v>0.3168543494417961</v>
+        <v>0.1052438076419132</v>
       </c>
       <c r="J9">
-        <v>0.3413970049986661</v>
+        <v>0.110151373754687</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,25 +998,25 @@
         <v>0.235393</v>
       </c>
       <c r="N9">
-        <v>0.7061789999999999</v>
+        <v>0.706179</v>
       </c>
       <c r="O9">
-        <v>0.00106287497375686</v>
+        <v>0.00128024737827018</v>
       </c>
       <c r="P9">
-        <v>0.001296011649079689</v>
+        <v>0.001889636063895296</v>
       </c>
       <c r="Q9">
         <v>4.280073474702999</v>
       </c>
       <c r="R9">
-        <v>38.52066127232699</v>
+        <v>38.520661272327</v>
       </c>
       <c r="S9">
-        <v>0.0003367765583476959</v>
+        <v>0.0001347381088127305</v>
       </c>
       <c r="T9">
-        <v>0.000442454495439188</v>
+        <v>0.0002081460083344664</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>54.548013</v>
       </c>
       <c r="I10">
-        <v>0.3168543494417961</v>
+        <v>0.1052438076419132</v>
       </c>
       <c r="J10">
-        <v>0.3413970049986661</v>
+        <v>0.110151373754687</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.5852593333333332</v>
+        <v>1.892831</v>
       </c>
       <c r="N10">
-        <v>1.755778</v>
+        <v>5.678493</v>
       </c>
       <c r="O10">
-        <v>0.002642633802014605</v>
+        <v>0.01029466434965578</v>
       </c>
       <c r="P10">
-        <v>0.003222283218840886</v>
+        <v>0.01519485167553409</v>
       </c>
       <c r="Q10">
-        <v>10.64157790767933</v>
+        <v>34.416723331601</v>
       </c>
       <c r="R10">
-        <v>95.77420116911399</v>
+        <v>309.750509984409</v>
       </c>
       <c r="S10">
-        <v>0.0008373300141502378</v>
+        <v>0.001083449674553234</v>
       </c>
       <c r="T10">
-        <v>0.00110007784016974</v>
+        <v>0.001673733786058788</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>54.548013</v>
       </c>
       <c r="I11">
-        <v>0.3168543494417961</v>
+        <v>0.1052438076419132</v>
       </c>
       <c r="J11">
-        <v>0.3413970049986661</v>
+        <v>0.110151373754687</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.696687</v>
+        <v>3.211954</v>
       </c>
       <c r="N11">
-        <v>3.393374</v>
+        <v>6.423908</v>
       </c>
       <c r="O11">
-        <v>0.007661086568413696</v>
+        <v>0.01746906529771241</v>
       </c>
       <c r="P11">
-        <v>0.00622767348460396</v>
+        <v>0.01718947777821983</v>
       </c>
       <c r="Q11">
-        <v>30.85030151097699</v>
+        <v>58.401902849134</v>
       </c>
       <c r="R11">
-        <v>185.101809065862</v>
+        <v>350.411417094804</v>
       </c>
       <c r="S11">
-        <v>0.002427448600652004</v>
+        <v>0.001838510947876465</v>
       </c>
       <c r="T11">
-        <v>0.002126109075753399</v>
+        <v>0.00189344459139658</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>54.548013</v>
       </c>
       <c r="I12">
-        <v>0.3168543494417961</v>
+        <v>0.1052438076419132</v>
       </c>
       <c r="J12">
-        <v>0.3413970049986661</v>
+        <v>0.110151373754687</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>98.61275733333333</v>
+        <v>3.150505</v>
       </c>
       <c r="N12">
-        <v>295.838272</v>
+        <v>9.451515000000001</v>
       </c>
       <c r="O12">
-        <v>0.4452682614298566</v>
+        <v>0.01713485858320806</v>
       </c>
       <c r="P12">
-        <v>0.5429357808085564</v>
+        <v>0.02529092992350006</v>
       </c>
       <c r="Q12">
-        <v>1793.043322994837</v>
+        <v>57.284595898855</v>
       </c>
       <c r="R12">
-        <v>16137.38990695354</v>
+        <v>515.561363089695</v>
       </c>
       <c r="S12">
-        <v>0.1410851853024368</v>
+        <v>0.001803337760702533</v>
       </c>
       <c r="T12">
-        <v>0.1853566494746534</v>
+        <v>0.002785830674607053</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>54.548013</v>
       </c>
       <c r="I13">
-        <v>0.3168543494417961</v>
+        <v>0.1052438076419132</v>
       </c>
       <c r="J13">
-        <v>0.3413970049986661</v>
+        <v>0.110151373754687</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.51651</v>
+        <v>0.7024216666666666</v>
       </c>
       <c r="N13">
-        <v>7.549530000000001</v>
+        <v>2.107265</v>
       </c>
       <c r="O13">
-        <v>0.01136285063790714</v>
+        <v>0.003820306879092285</v>
       </c>
       <c r="P13">
-        <v>0.01385523900466678</v>
+        <v>0.005638745898963748</v>
       </c>
       <c r="Q13">
-        <v>45.75687339821</v>
+        <v>12.77190206827166</v>
       </c>
       <c r="R13">
-        <v>411.81186058389</v>
+        <v>114.947118614445</v>
       </c>
       <c r="S13">
-        <v>0.003600368646678365</v>
+        <v>0.0004020636423162661</v>
       </c>
       <c r="T13">
-        <v>0.00473013709973394</v>
+        <v>0.0006211156070244645</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>14.63643766666667</v>
+        <v>23.56402866666666</v>
       </c>
       <c r="H14">
-        <v>43.909313</v>
+        <v>70.69208599999999</v>
       </c>
       <c r="I14">
-        <v>0.2550570779736964</v>
+        <v>0.1363918480548426</v>
       </c>
       <c r="J14">
-        <v>0.2748130889707934</v>
+        <v>0.142751861309494</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>117.8215865</v>
+        <v>174.672142</v>
       </c>
       <c r="N14">
-        <v>235.643173</v>
+        <v>349.344284</v>
       </c>
       <c r="O14">
-        <v>0.532002292588051</v>
+        <v>0.9500008575120613</v>
       </c>
       <c r="P14">
-        <v>0.4324630118342522</v>
+        <v>0.9347963586598871</v>
       </c>
       <c r="Q14">
-        <v>1724.488306595025</v>
+        <v>4115.97936135607</v>
       </c>
       <c r="R14">
-        <v>10346.92983957015</v>
+        <v>24695.87616813642</v>
       </c>
       <c r="S14">
-        <v>0.1356909502228157</v>
+        <v>0.1295723726097553</v>
       </c>
       <c r="T14">
-        <v>0.1188464961477836</v>
+        <v>0.1334439201440362</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>14.63643766666667</v>
+        <v>23.56402866666666</v>
       </c>
       <c r="H15">
-        <v>43.909313</v>
+        <v>70.69208599999999</v>
       </c>
       <c r="I15">
-        <v>0.2550570779736964</v>
+        <v>0.1363918480548426</v>
       </c>
       <c r="J15">
-        <v>0.2748130889707934</v>
+        <v>0.142751861309494</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,25 +1370,25 @@
         <v>0.235393</v>
       </c>
       <c r="N15">
-        <v>0.7061789999999999</v>
+        <v>0.706179</v>
       </c>
       <c r="O15">
-        <v>0.00106287497375686</v>
+        <v>0.00128024737827018</v>
       </c>
       <c r="P15">
-        <v>0.001296011649079689</v>
+        <v>0.001889636063895296</v>
       </c>
       <c r="Q15">
-        <v>3.445314971669666</v>
+        <v>5.546807399932665</v>
       </c>
       <c r="R15">
-        <v>31.00783474502699</v>
+        <v>49.921266599394</v>
       </c>
       <c r="S15">
-        <v>0.0002710937850577938</v>
+        <v>0.0001746153058896371</v>
       </c>
       <c r="T15">
-        <v>0.0003561609646257212</v>
+        <v>0.0002697490653185995</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>14.63643766666667</v>
+        <v>23.56402866666666</v>
       </c>
       <c r="H16">
-        <v>43.909313</v>
+        <v>70.69208599999999</v>
       </c>
       <c r="I16">
-        <v>0.2550570779736964</v>
+        <v>0.1363918480548426</v>
       </c>
       <c r="J16">
-        <v>0.2748130889707934</v>
+        <v>0.142751861309494</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.5852593333333332</v>
+        <v>1.892831</v>
       </c>
       <c r="N16">
-        <v>1.755778</v>
+        <v>5.678493</v>
       </c>
       <c r="O16">
-        <v>0.002642633802014605</v>
+        <v>0.01029466434965578</v>
       </c>
       <c r="P16">
-        <v>0.003222283218840886</v>
+        <v>0.01519485167553409</v>
       </c>
       <c r="Q16">
-        <v>8.56611175116822</v>
+        <v>44.60272394515533</v>
       </c>
       <c r="R16">
-        <v>77.09500576051398</v>
+        <v>401.4245155063979</v>
       </c>
       <c r="S16">
-        <v>0.0006740224556963647</v>
+        <v>0.001404108295753857</v>
       </c>
       <c r="T16">
-        <v>0.0008855256049084148</v>
+        <v>0.002169093359004176</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>14.63643766666667</v>
+        <v>23.56402866666666</v>
       </c>
       <c r="H17">
-        <v>43.909313</v>
+        <v>70.69208599999999</v>
       </c>
       <c r="I17">
-        <v>0.2550570779736964</v>
+        <v>0.1363918480548426</v>
       </c>
       <c r="J17">
-        <v>0.2748130889707934</v>
+        <v>0.142751861309494</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.696687</v>
+        <v>3.211954</v>
       </c>
       <c r="N17">
-        <v>3.393374</v>
+        <v>6.423908</v>
       </c>
       <c r="O17">
-        <v>0.007661086568413696</v>
+        <v>0.01746906529771241</v>
       </c>
       <c r="P17">
-        <v>0.00622767348460396</v>
+        <v>0.01718947777821983</v>
       </c>
       <c r="Q17">
-        <v>24.83345351534366</v>
+        <v>75.68657613201465</v>
       </c>
       <c r="R17">
-        <v>149.000721092062</v>
+        <v>454.1194567920879</v>
       </c>
       <c r="S17">
-        <v>0.00195401435424313</v>
+        <v>0.002382638099745716</v>
       </c>
       <c r="T17">
-        <v>0.001711446187405519</v>
+        <v>0.002453829947779067</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>14.63643766666667</v>
+        <v>23.56402866666666</v>
       </c>
       <c r="H18">
-        <v>43.909313</v>
+        <v>70.69208599999999</v>
       </c>
       <c r="I18">
-        <v>0.2550570779736964</v>
+        <v>0.1363918480548426</v>
       </c>
       <c r="J18">
-        <v>0.2748130889707934</v>
+        <v>0.142751861309494</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>98.61275733333333</v>
+        <v>3.150505</v>
       </c>
       <c r="N18">
-        <v>295.838272</v>
+        <v>9.451515000000001</v>
       </c>
       <c r="O18">
-        <v>0.4452682614298566</v>
+        <v>0.01713485858320806</v>
       </c>
       <c r="P18">
-        <v>0.5429357808085564</v>
+        <v>0.02529092992350006</v>
       </c>
       <c r="Q18">
-        <v>1443.339475847459</v>
+        <v>74.23859013447665</v>
       </c>
       <c r="R18">
-        <v>12990.05528262714</v>
+        <v>668.1473112102899</v>
       </c>
       <c r="S18">
-        <v>0.1135688216747272</v>
+        <v>0.00233705502832213</v>
       </c>
       <c r="T18">
-        <v>0.149205859036769</v>
+        <v>0.003610327320827613</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>14.63643766666667</v>
+        <v>23.56402866666666</v>
       </c>
       <c r="H19">
-        <v>43.909313</v>
+        <v>70.69208599999999</v>
       </c>
       <c r="I19">
-        <v>0.2550570779736964</v>
+        <v>0.1363918480548426</v>
       </c>
       <c r="J19">
-        <v>0.2748130889707934</v>
+        <v>0.142751861309494</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.51651</v>
+        <v>0.7024216666666666</v>
       </c>
       <c r="N19">
-        <v>7.549530000000001</v>
+        <v>2.107265</v>
       </c>
       <c r="O19">
-        <v>0.01136285063790714</v>
+        <v>0.003820306879092285</v>
       </c>
       <c r="P19">
-        <v>0.01385523900466678</v>
+        <v>0.005638745898963748</v>
       </c>
       <c r="Q19">
-        <v>36.83274175254333</v>
+        <v>16.55188428942111</v>
       </c>
       <c r="R19">
-        <v>331.49467577289</v>
+        <v>148.96695860479</v>
       </c>
       <c r="S19">
-        <v>0.002898175481156147</v>
+        <v>0.000521058715376025</v>
       </c>
       <c r="T19">
-        <v>0.0038076010293011</v>
+        <v>0.0008049414725283513</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>10.126433</v>
+        <v>16.786919</v>
       </c>
       <c r="H20">
-        <v>20.252866</v>
+        <v>33.57383799999999</v>
       </c>
       <c r="I20">
-        <v>0.1764649616319261</v>
+        <v>0.09716500255305598</v>
       </c>
       <c r="J20">
-        <v>0.1267556307695262</v>
+        <v>0.06779723356591034</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>117.8215865</v>
+        <v>174.672142</v>
       </c>
       <c r="N20">
-        <v>235.643173</v>
+        <v>349.344284</v>
       </c>
       <c r="O20">
-        <v>0.532002292588051</v>
+        <v>0.9500008575120613</v>
       </c>
       <c r="P20">
-        <v>0.4324630118342522</v>
+        <v>0.9347963586598871</v>
       </c>
       <c r="Q20">
-        <v>1193.112401645954</v>
+        <v>2932.207099310498</v>
       </c>
       <c r="R20">
-        <v>4772.449606583818</v>
+        <v>11728.82839724199</v>
       </c>
       <c r="S20">
-        <v>0.09387976414964716</v>
+        <v>0.09230683574556481</v>
       </c>
       <c r="T20">
-        <v>0.05481712184953971</v>
+        <v>0.06337660706462686</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>10.126433</v>
+        <v>16.786919</v>
       </c>
       <c r="H21">
-        <v>20.252866</v>
+        <v>33.57383799999999</v>
       </c>
       <c r="I21">
-        <v>0.1764649616319261</v>
+        <v>0.09716500255305598</v>
       </c>
       <c r="J21">
-        <v>0.1267556307695262</v>
+        <v>0.06779723356591034</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1742,25 +1742,25 @@
         <v>0.235393</v>
       </c>
       <c r="N21">
-        <v>0.7061789999999999</v>
+        <v>0.706179</v>
       </c>
       <c r="O21">
-        <v>0.00106287497375686</v>
+        <v>0.00128024737827018</v>
       </c>
       <c r="P21">
-        <v>0.001296011649079689</v>
+        <v>0.001889636063895296</v>
       </c>
       <c r="Q21">
-        <v>2.383691443169</v>
+        <v>3.951523224166999</v>
       </c>
       <c r="R21">
-        <v>14.302148659014</v>
+        <v>23.709139345002</v>
       </c>
       <c r="S21">
-        <v>0.0001875601914635387</v>
+        <v>0.0001243952397781653</v>
       </c>
       <c r="T21">
-        <v>0.0001642767740637498</v>
+        <v>0.0001281120975784768</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>10.126433</v>
+        <v>16.786919</v>
       </c>
       <c r="H22">
-        <v>20.252866</v>
+        <v>33.57383799999999</v>
       </c>
       <c r="I22">
-        <v>0.1764649616319261</v>
+        <v>0.09716500255305598</v>
       </c>
       <c r="J22">
-        <v>0.1267556307695262</v>
+        <v>0.06779723356591034</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.5852593333333332</v>
+        <v>1.892831</v>
       </c>
       <c r="N22">
-        <v>1.755778</v>
+        <v>5.678493</v>
       </c>
       <c r="O22">
-        <v>0.002642633802014605</v>
+        <v>0.01029466434965578</v>
       </c>
       <c r="P22">
-        <v>0.003222283218840886</v>
+        <v>0.01519485167553409</v>
       </c>
       <c r="Q22">
-        <v>5.926589426624665</v>
+        <v>31.77480067768899</v>
       </c>
       <c r="R22">
-        <v>35.55953655974799</v>
+        <v>190.6488040661339</v>
       </c>
       <c r="S22">
-        <v>0.0004663322724797383</v>
+        <v>0.001000281087817158</v>
       </c>
       <c r="T22">
-        <v>0.0004084425419222356</v>
+        <v>0.001030168908045549</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>10.126433</v>
+        <v>16.786919</v>
       </c>
       <c r="H23">
-        <v>20.252866</v>
+        <v>33.57383799999999</v>
       </c>
       <c r="I23">
-        <v>0.1764649616319261</v>
+        <v>0.09716500255305598</v>
       </c>
       <c r="J23">
-        <v>0.1267556307695262</v>
+        <v>0.06779723356591034</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.696687</v>
+        <v>3.211954</v>
       </c>
       <c r="N23">
-        <v>3.393374</v>
+        <v>6.423908</v>
       </c>
       <c r="O23">
-        <v>0.007661086568413696</v>
+        <v>0.01746906529771241</v>
       </c>
       <c r="P23">
-        <v>0.00622767348460396</v>
+        <v>0.01718947777821983</v>
       </c>
       <c r="Q23">
-        <v>17.181387227471</v>
+        <v>53.91881162972599</v>
       </c>
       <c r="R23">
-        <v>68.72554890988398</v>
+        <v>215.675246518904</v>
       </c>
       <c r="S23">
-        <v>0.001351913347353987</v>
+        <v>0.001697381774251728</v>
       </c>
       <c r="T23">
-        <v>0.000789392680767628</v>
+        <v>0.001165399039805995</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>10.126433</v>
+        <v>16.786919</v>
       </c>
       <c r="H24">
-        <v>20.252866</v>
+        <v>33.57383799999999</v>
       </c>
       <c r="I24">
-        <v>0.1764649616319261</v>
+        <v>0.09716500255305598</v>
       </c>
       <c r="J24">
-        <v>0.1267556307695262</v>
+        <v>0.06779723356591034</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>98.61275733333333</v>
+        <v>3.150505</v>
       </c>
       <c r="N24">
-        <v>295.838272</v>
+        <v>9.451515000000001</v>
       </c>
       <c r="O24">
-        <v>0.4452682614298566</v>
+        <v>0.01713485858320806</v>
       </c>
       <c r="P24">
-        <v>0.5429357808085564</v>
+        <v>0.02529092992350006</v>
       </c>
       <c r="Q24">
-        <v>998.5954800812585</v>
+        <v>52.88727224409499</v>
       </c>
       <c r="R24">
-        <v>5991.572880487552</v>
+        <v>317.32363346457</v>
       </c>
       <c r="S24">
-        <v>0.07857424666913411</v>
+        <v>0.001664908577983664</v>
       </c>
       <c r="T24">
-        <v>0.06882016736373377</v>
+        <v>0.001714655083122605</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>10.126433</v>
+        <v>16.786919</v>
       </c>
       <c r="H25">
-        <v>20.252866</v>
+        <v>33.57383799999999</v>
       </c>
       <c r="I25">
-        <v>0.1764649616319261</v>
+        <v>0.09716500255305598</v>
       </c>
       <c r="J25">
-        <v>0.1267556307695262</v>
+        <v>0.06779723356591034</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.51651</v>
+        <v>0.7024216666666666</v>
       </c>
       <c r="N25">
-        <v>7.549530000000001</v>
+        <v>2.107265</v>
       </c>
       <c r="O25">
-        <v>0.01136285063790714</v>
+        <v>0.003820306879092285</v>
       </c>
       <c r="P25">
-        <v>0.01385523900466678</v>
+        <v>0.005638745898963748</v>
       </c>
       <c r="Q25">
-        <v>25.48326990883</v>
+        <v>11.79149562217833</v>
       </c>
       <c r="R25">
-        <v>152.89961945298</v>
+        <v>70.74897373306999</v>
       </c>
       <c r="S25">
-        <v>0.002005145001847591</v>
+        <v>0.0003712001276604592</v>
       </c>
       <c r="T25">
-        <v>0.00175622955949908</v>
+        <v>0.0003822913727308643</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.810577666666667</v>
+        <v>82.370743</v>
       </c>
       <c r="H26">
-        <v>5.431733</v>
+        <v>247.112229</v>
       </c>
       <c r="I26">
-        <v>0.03155143755752453</v>
+        <v>0.4767732216907772</v>
       </c>
       <c r="J26">
-        <v>0.03399532404878652</v>
+        <v>0.4990053715784811</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>117.8215865</v>
+        <v>174.672142</v>
       </c>
       <c r="N26">
-        <v>235.643173</v>
+        <v>349.344284</v>
       </c>
       <c r="O26">
-        <v>0.532002292588051</v>
+        <v>0.9500008575120613</v>
       </c>
       <c r="P26">
-        <v>0.4324630118342522</v>
+        <v>0.9347963586598871</v>
       </c>
       <c r="Q26">
-        <v>213.3251331681348</v>
+        <v>14387.87411794151</v>
       </c>
       <c r="R26">
-        <v>1279.950799008809</v>
+        <v>86327.24470764905</v>
       </c>
       <c r="S26">
-        <v>0.01678543711505178</v>
+        <v>0.4529349694450264</v>
       </c>
       <c r="T26">
-        <v>0.01470172022641961</v>
+        <v>0.466468404303288</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.810577666666667</v>
+        <v>82.370743</v>
       </c>
       <c r="H27">
-        <v>5.431733</v>
+        <v>247.112229</v>
       </c>
       <c r="I27">
-        <v>0.03155143755752453</v>
+        <v>0.4767732216907772</v>
       </c>
       <c r="J27">
-        <v>0.03399532404878652</v>
+        <v>0.4990053715784811</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2114,25 +2114,25 @@
         <v>0.235393</v>
       </c>
       <c r="N27">
-        <v>0.7061789999999999</v>
+        <v>0.706179</v>
       </c>
       <c r="O27">
-        <v>0.00106287497375686</v>
+        <v>0.00128024737827018</v>
       </c>
       <c r="P27">
-        <v>0.001296011649079689</v>
+        <v>0.001889636063895296</v>
       </c>
       <c r="Q27">
-        <v>0.4261973086896667</v>
+        <v>19.389496306999</v>
       </c>
       <c r="R27">
-        <v>3.835775778207</v>
+        <v>174.505466762991</v>
       </c>
       <c r="S27">
-        <v>3.353523336594507E-05</v>
+        <v>0.0006103876670990448</v>
       </c>
       <c r="T27">
-        <v>4.405833598146622E-05</v>
+        <v>0.0009429385462121705</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.810577666666667</v>
+        <v>82.370743</v>
       </c>
       <c r="H28">
-        <v>5.431733</v>
+        <v>247.112229</v>
       </c>
       <c r="I28">
-        <v>0.03155143755752453</v>
+        <v>0.4767732216907772</v>
       </c>
       <c r="J28">
-        <v>0.03399532404878652</v>
+        <v>0.4990053715784811</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.5852593333333332</v>
+        <v>1.892831</v>
       </c>
       <c r="N28">
-        <v>1.755778</v>
+        <v>5.678493</v>
       </c>
       <c r="O28">
-        <v>0.002642633802014605</v>
+        <v>0.01029466434965578</v>
       </c>
       <c r="P28">
-        <v>0.003222283218840886</v>
+        <v>0.01519485167553409</v>
       </c>
       <c r="Q28">
-        <v>1.059657478141556</v>
+        <v>155.913895843433</v>
       </c>
       <c r="R28">
-        <v>9.536917303274</v>
+        <v>1403.225062590897</v>
       </c>
       <c r="S28">
-        <v>8.337889539166744E-05</v>
+        <v>0.004908220288210577</v>
       </c>
       <c r="T28">
-        <v>0.0001095425622014628</v>
+        <v>0.007582312606429795</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.810577666666667</v>
+        <v>82.370743</v>
       </c>
       <c r="H29">
-        <v>5.431733</v>
+        <v>247.112229</v>
       </c>
       <c r="I29">
-        <v>0.03155143755752453</v>
+        <v>0.4767732216907772</v>
       </c>
       <c r="J29">
-        <v>0.03399532404878652</v>
+        <v>0.4990053715784811</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.696687</v>
+        <v>3.211954</v>
       </c>
       <c r="N29">
-        <v>3.393374</v>
+        <v>6.423908</v>
       </c>
       <c r="O29">
-        <v>0.007661086568413696</v>
+        <v>0.01746906529771241</v>
       </c>
       <c r="P29">
-        <v>0.00622767348460396</v>
+        <v>0.01718947777821983</v>
       </c>
       <c r="Q29">
-        <v>3.071983589523667</v>
+        <v>264.571037461822</v>
       </c>
       <c r="R29">
-        <v>18.431901537142</v>
+        <v>1587.426224770932</v>
       </c>
       <c r="S29">
-        <v>0.0002417182944860946</v>
+        <v>0.008328782541916902</v>
       </c>
       <c r="T29">
-        <v>0.0002117117781791472</v>
+        <v>0.008577641745960631</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.810577666666667</v>
+        <v>82.370743</v>
       </c>
       <c r="H30">
-        <v>5.431733</v>
+        <v>247.112229</v>
       </c>
       <c r="I30">
-        <v>0.03155143755752453</v>
+        <v>0.4767732216907772</v>
       </c>
       <c r="J30">
-        <v>0.03399532404878652</v>
+        <v>0.4990053715784811</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>98.61275733333333</v>
+        <v>3.150505</v>
       </c>
       <c r="N30">
-        <v>295.838272</v>
+        <v>9.451515000000001</v>
       </c>
       <c r="O30">
-        <v>0.4452682614298566</v>
+        <v>0.01713485858320806</v>
       </c>
       <c r="P30">
-        <v>0.5429357808085564</v>
+        <v>0.02529092992350006</v>
       </c>
       <c r="Q30">
-        <v>178.5460560761529</v>
+        <v>259.5094376752151</v>
       </c>
       <c r="R30">
-        <v>1606.914504685376</v>
+        <v>2335.584939076935</v>
       </c>
       <c r="S30">
-        <v>0.01404885374685163</v>
+        <v>0.008169441729931972</v>
       </c>
       <c r="T30">
-        <v>0.01845727780626781</v>
+        <v>0.01262030988404147</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1.810577666666667</v>
+        <v>82.370743</v>
       </c>
       <c r="H31">
-        <v>5.431733</v>
+        <v>247.112229</v>
       </c>
       <c r="I31">
-        <v>0.03155143755752453</v>
+        <v>0.4767732216907772</v>
       </c>
       <c r="J31">
-        <v>0.03399532404878652</v>
+        <v>0.4990053715784811</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>2.51651</v>
+        <v>0.7024216666666666</v>
       </c>
       <c r="N31">
-        <v>7.549530000000001</v>
+        <v>2.107265</v>
       </c>
       <c r="O31">
-        <v>0.01136285063790714</v>
+        <v>0.003820306879092285</v>
       </c>
       <c r="P31">
-        <v>0.01385523900466678</v>
+        <v>0.005638745898963748</v>
       </c>
       <c r="Q31">
-        <v>4.556336803943334</v>
+        <v>57.85899458263167</v>
       </c>
       <c r="R31">
-        <v>41.00703123549</v>
+        <v>520.730951243685</v>
       </c>
       <c r="S31">
-        <v>0.0003585142723774049</v>
+        <v>0.001821420018592267</v>
       </c>
       <c r="T31">
-        <v>0.0004710133397370338</v>
+        <v>0.002813764492549041</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>10.37924066666667</v>
+        <v>25.55784666666667</v>
       </c>
       <c r="H32">
-        <v>31.137722</v>
+        <v>76.67354</v>
       </c>
       <c r="I32">
-        <v>0.1808704314749193</v>
+        <v>0.1479323416415651</v>
       </c>
       <c r="J32">
-        <v>0.1948801514233172</v>
+        <v>0.1548304933056855</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>117.8215865</v>
+        <v>174.672142</v>
       </c>
       <c r="N32">
-        <v>235.643173</v>
+        <v>349.344284</v>
       </c>
       <c r="O32">
-        <v>0.532002292588051</v>
+        <v>0.9500008575120613</v>
       </c>
       <c r="P32">
-        <v>0.4324630118342522</v>
+        <v>0.9347963586598871</v>
       </c>
       <c r="Q32">
-        <v>1222.898602011984</v>
+        <v>4464.243822174227</v>
       </c>
       <c r="R32">
-        <v>7337.391612071907</v>
+        <v>26785.46293304536</v>
       </c>
       <c r="S32">
-        <v>0.09622348420604702</v>
+        <v>0.1405358514132541</v>
       </c>
       <c r="T32">
-        <v>0.08427845723124291</v>
+        <v>0.1447349813516689</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>10.37924066666667</v>
+        <v>25.55784666666667</v>
       </c>
       <c r="H33">
-        <v>31.137722</v>
+        <v>76.67354</v>
       </c>
       <c r="I33">
-        <v>0.1808704314749193</v>
+        <v>0.1479323416415651</v>
       </c>
       <c r="J33">
-        <v>0.1948801514233172</v>
+        <v>0.1548304933056855</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2486,25 +2486,25 @@
         <v>0.235393</v>
       </c>
       <c r="N33">
-        <v>0.7061789999999999</v>
+        <v>0.706179</v>
       </c>
       <c r="O33">
-        <v>0.00106287497375686</v>
+        <v>0.00128024737827018</v>
       </c>
       <c r="P33">
-        <v>0.001296011649079689</v>
+        <v>0.001889636063895296</v>
       </c>
       <c r="Q33">
-        <v>2.443200598248667</v>
+        <v>6.016138200406666</v>
       </c>
       <c r="R33">
-        <v>21.988805384238</v>
+        <v>54.14524380366</v>
       </c>
       <c r="S33">
-        <v>0.0001922426551072967</v>
+        <v>0.0001893899925479823</v>
       </c>
       <c r="T33">
-        <v>0.0002525669464190328</v>
+        <v>0.0002925732839411226</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>10.37924066666667</v>
+        <v>25.55784666666667</v>
       </c>
       <c r="H34">
-        <v>31.137722</v>
+        <v>76.67354</v>
       </c>
       <c r="I34">
-        <v>0.1808704314749193</v>
+        <v>0.1479323416415651</v>
       </c>
       <c r="J34">
-        <v>0.1948801514233172</v>
+        <v>0.1548304933056855</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.5852593333333332</v>
+        <v>1.892831</v>
       </c>
       <c r="N34">
-        <v>1.755778</v>
+        <v>5.678493</v>
       </c>
       <c r="O34">
-        <v>0.002642633802014605</v>
+        <v>0.01029466434965578</v>
       </c>
       <c r="P34">
-        <v>0.003222283218840886</v>
+        <v>0.01519485167553409</v>
       </c>
       <c r="Q34">
-        <v>6.074547473079555</v>
+        <v>48.37668446391333</v>
       </c>
       <c r="R34">
-        <v>54.670927257716</v>
+        <v>435.39016017522</v>
       </c>
       <c r="S34">
-        <v>0.0004779743160005879</v>
+        <v>0.00152291380365852</v>
       </c>
       <c r="T34">
-        <v>0.000627959041616526</v>
+        <v>0.002352626380629666</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>10.37924066666667</v>
+        <v>25.55784666666667</v>
       </c>
       <c r="H35">
-        <v>31.137722</v>
+        <v>76.67354</v>
       </c>
       <c r="I35">
-        <v>0.1808704314749193</v>
+        <v>0.1479323416415651</v>
       </c>
       <c r="J35">
-        <v>0.1948801514233172</v>
+        <v>0.1548304933056855</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.696687</v>
+        <v>3.211954</v>
       </c>
       <c r="N35">
-        <v>3.393374</v>
+        <v>6.423908</v>
       </c>
       <c r="O35">
-        <v>0.007661086568413696</v>
+        <v>0.01746906529771241</v>
       </c>
       <c r="P35">
-        <v>0.00622767348460396</v>
+        <v>0.01718947777821983</v>
       </c>
       <c r="Q35">
-        <v>17.61032270900467</v>
+        <v>82.09062783238666</v>
       </c>
       <c r="R35">
-        <v>105.661936254028</v>
+        <v>492.54376699432</v>
       </c>
       <c r="S35">
-        <v>0.001385664033195694</v>
+        <v>0.002584239735780002</v>
       </c>
       <c r="T35">
-        <v>0.001213649951694597</v>
+        <v>0.002661455324068896</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>10.37924066666667</v>
+        <v>25.55784666666667</v>
       </c>
       <c r="H36">
-        <v>31.137722</v>
+        <v>76.67354</v>
       </c>
       <c r="I36">
-        <v>0.1808704314749193</v>
+        <v>0.1479323416415651</v>
       </c>
       <c r="J36">
-        <v>0.1948801514233172</v>
+        <v>0.1548304933056855</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>98.61275733333333</v>
+        <v>3.150505</v>
       </c>
       <c r="N36">
-        <v>295.838272</v>
+        <v>9.451515000000001</v>
       </c>
       <c r="O36">
-        <v>0.4452682614298566</v>
+        <v>0.01713485858320806</v>
       </c>
       <c r="P36">
-        <v>0.5429357808085564</v>
+        <v>0.02529092992350006</v>
       </c>
       <c r="Q36">
-        <v>1023.525541166265</v>
+        <v>80.52012371256667</v>
       </c>
       <c r="R36">
-        <v>9211.729870496385</v>
+        <v>724.6811134131001</v>
       </c>
       <c r="S36">
-        <v>0.08053586256690533</v>
+        <v>0.002534799753911039</v>
       </c>
       <c r="T36">
-        <v>0.1058074071771085</v>
+        <v>0.003915807156215038</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>10.37924066666667</v>
+        <v>25.55784666666667</v>
       </c>
       <c r="H37">
-        <v>31.137722</v>
+        <v>76.67354</v>
       </c>
       <c r="I37">
-        <v>0.1808704314749193</v>
+        <v>0.1479323416415651</v>
       </c>
       <c r="J37">
-        <v>0.1948801514233172</v>
+        <v>0.1548304933056855</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>2.51651</v>
+        <v>0.7024216666666666</v>
       </c>
       <c r="N37">
-        <v>7.549530000000001</v>
+        <v>2.107265</v>
       </c>
       <c r="O37">
-        <v>0.01136285063790714</v>
+        <v>0.003820306879092285</v>
       </c>
       <c r="P37">
-        <v>0.01385523900466678</v>
+        <v>0.005638745898963748</v>
       </c>
       <c r="Q37">
-        <v>26.11946293007334</v>
+        <v>17.95238525201111</v>
       </c>
       <c r="R37">
-        <v>235.07516637066</v>
+        <v>161.5714672681</v>
       </c>
       <c r="S37">
-        <v>0.002055203697663326</v>
+        <v>0.0005651469424135013</v>
       </c>
       <c r="T37">
-        <v>0.002700111075235714</v>
+        <v>0.0008730498091619684</v>
       </c>
     </row>
   </sheetData>
